--- a/simulation_data/two_step_algorithm/2s_error_level_9_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_9_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>96.17041356575518</v>
+        <v>93.51565546665202</v>
       </c>
       <c r="D2" t="n">
-        <v>12.69308433016066</v>
+        <v>10.56279455520013</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.34834497345457</v>
+        <v>91.87561192653378</v>
       </c>
       <c r="D3" t="n">
-        <v>11.32551632269725</v>
+        <v>10.62002672898952</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.91122592098367</v>
+        <v>93.39869045314799</v>
       </c>
       <c r="D4" t="n">
-        <v>10.21683777500762</v>
+        <v>10.19662811916519</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.91354827758343</v>
+        <v>90.34514243250247</v>
       </c>
       <c r="D5" t="n">
-        <v>9.095440168906933</v>
+        <v>9.90358494978825</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.86347411466085</v>
+        <v>90.36660576185122</v>
       </c>
       <c r="D6" t="n">
-        <v>11.01349088827123</v>
+        <v>9.300530091438699</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.80810993638795</v>
+        <v>89.44740378296331</v>
       </c>
       <c r="D7" t="n">
-        <v>10.89013152833384</v>
+        <v>10.302896438046</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.85797012329209</v>
+        <v>86.36328212522558</v>
       </c>
       <c r="D8" t="n">
-        <v>10.76090324015184</v>
+        <v>10.20073043028115</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>87.61607138404128</v>
+        <v>85.86289096745888</v>
       </c>
       <c r="D9" t="n">
-        <v>10.46738930747834</v>
+        <v>9.489429227366113</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.72455811142682</v>
+        <v>87.52658149735539</v>
       </c>
       <c r="D10" t="n">
-        <v>10.67212975635246</v>
+        <v>11.40356163577365</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.8150001056928</v>
+        <v>83.63788313592406</v>
       </c>
       <c r="D11" t="n">
-        <v>11.9299571359602</v>
+        <v>11.37217064039918</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.84216830710243</v>
+        <v>83.56544042855603</v>
       </c>
       <c r="D12" t="n">
-        <v>12.24296729441611</v>
+        <v>9.898878280300174</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.51413226414269</v>
+        <v>82.08070470466379</v>
       </c>
       <c r="D13" t="n">
-        <v>10.27016475316254</v>
+        <v>9.782669762158116</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.13346368685882</v>
+        <v>80.95330211545175</v>
       </c>
       <c r="D14" t="n">
-        <v>11.00904671836081</v>
+        <v>9.838729158125632</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>81.37981711585702</v>
+        <v>79.52238080193482</v>
       </c>
       <c r="D15" t="n">
-        <v>10.50956549617978</v>
+        <v>11.72574531338682</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.2409510703754</v>
+        <v>77.75227958790427</v>
       </c>
       <c r="D16" t="n">
-        <v>9.431100705954497</v>
+        <v>11.27160972909737</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.0238607884905</v>
+        <v>77.20898339042846</v>
       </c>
       <c r="D17" t="n">
-        <v>10.16497655590046</v>
+        <v>11.13946570179958</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.11879463898227</v>
+        <v>76.15552482824768</v>
       </c>
       <c r="D18" t="n">
-        <v>10.15949037965584</v>
+        <v>10.78274505541165</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.88279568842191</v>
+        <v>74.51973606565591</v>
       </c>
       <c r="D19" t="n">
-        <v>10.17325434660038</v>
+        <v>10.77785301840063</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.7428746841087</v>
+        <v>75.85437335125475</v>
       </c>
       <c r="D20" t="n">
-        <v>10.4564134132362</v>
+        <v>10.62655025642531</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.73475014812111</v>
+        <v>73.14485466961025</v>
       </c>
       <c r="D21" t="n">
-        <v>11.31905017492739</v>
+        <v>10.46394575438091</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.39253083335876</v>
+        <v>70.5510721898586</v>
       </c>
       <c r="D22" t="n">
-        <v>10.70962752362388</v>
+        <v>9.836675613278084</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.78794626225849</v>
+        <v>70.46445770003862</v>
       </c>
       <c r="D23" t="n">
-        <v>12.94251929156212</v>
+        <v>8.777534563502023</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.16753296656408</v>
+        <v>70.51598214314875</v>
       </c>
       <c r="D24" t="n">
-        <v>9.698023763150102</v>
+        <v>10.68850862039669</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.55803380360634</v>
+        <v>66.09711444930277</v>
       </c>
       <c r="D25" t="n">
-        <v>10.04621485045641</v>
+        <v>10.13176460983481</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.81797505056916</v>
+        <v>66.97346960862851</v>
       </c>
       <c r="D26" t="n">
-        <v>11.30811341077044</v>
+        <v>10.24417830966945</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.88093350408961</v>
+        <v>66.70525162096963</v>
       </c>
       <c r="D27" t="n">
-        <v>9.8913435331984</v>
+        <v>10.23244426415053</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.77400625612324</v>
+        <v>67.18976531144469</v>
       </c>
       <c r="D28" t="n">
-        <v>11.94615163562507</v>
+        <v>9.853316506808266</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.29376800729582</v>
+        <v>63.50151244411991</v>
       </c>
       <c r="D29" t="n">
-        <v>9.419653702910555</v>
+        <v>10.89290927903068</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.35239081481856</v>
+        <v>64.10961824037079</v>
       </c>
       <c r="D30" t="n">
-        <v>10.4210878226247</v>
+        <v>8.380772858016135</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.40843952650471</v>
+        <v>60.61231009412595</v>
       </c>
       <c r="D31" t="n">
-        <v>9.676399203551352</v>
+        <v>11.47454297854725</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.85436619389365</v>
+        <v>60.07367845430671</v>
       </c>
       <c r="D32" t="n">
-        <v>11.67582200061847</v>
+        <v>11.07662975347903</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.93770958486286</v>
+        <v>59.62857362223362</v>
       </c>
       <c r="D33" t="n">
-        <v>10.80002001596256</v>
+        <v>10.6557889896533</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.53526990592448</v>
+        <v>59.17972125233198</v>
       </c>
       <c r="D34" t="n">
-        <v>10.44398174365478</v>
+        <v>10.18357543460444</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.04221736884483</v>
+        <v>58.63285394567142</v>
       </c>
       <c r="D35" t="n">
-        <v>10.72634845803775</v>
+        <v>10.06497576546238</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.63754677738051</v>
+        <v>56.85994523149557</v>
       </c>
       <c r="D36" t="n">
-        <v>11.40446384895754</v>
+        <v>10.80984292294503</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.60456635904357</v>
+        <v>58.05412558906626</v>
       </c>
       <c r="D37" t="n">
-        <v>10.71595947136296</v>
+        <v>9.67236817051753</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.90919680476672</v>
+        <v>55.67450299986071</v>
       </c>
       <c r="D38" t="n">
-        <v>10.69550014679914</v>
+        <v>10.10442501419581</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.95531962462233</v>
+        <v>53.88780328588304</v>
       </c>
       <c r="D39" t="n">
-        <v>9.544549034259811</v>
+        <v>10.93702025795037</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.19226650689376</v>
+        <v>52.81624662409155</v>
       </c>
       <c r="D40" t="n">
-        <v>11.07682016695024</v>
+        <v>8.766259739204054</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.43400517211337</v>
+        <v>51.92492799291131</v>
       </c>
       <c r="D41" t="n">
-        <v>9.582066867966956</v>
+        <v>10.2030712659643</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.38631955837594</v>
+        <v>50.73349145606052</v>
       </c>
       <c r="D42" t="n">
-        <v>11.3329793317385</v>
+        <v>10.06435742999319</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.7809326874647</v>
+        <v>48.8675636712814</v>
       </c>
       <c r="D43" t="n">
-        <v>9.124716309515284</v>
+        <v>9.667161772575374</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.11168721520682</v>
+        <v>46.77638269930149</v>
       </c>
       <c r="D44" t="n">
-        <v>10.22852903286934</v>
+        <v>10.89434660728878</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.15132448017714</v>
+        <v>47.21650159170625</v>
       </c>
       <c r="D45" t="n">
-        <v>11.91080373456199</v>
+        <v>10.60007953623956</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.05606069000738</v>
+        <v>46.03824252680018</v>
       </c>
       <c r="D46" t="n">
-        <v>9.700132126080385</v>
+        <v>10.26454755778792</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.61677935819672</v>
+        <v>44.68799909069259</v>
       </c>
       <c r="D47" t="n">
-        <v>12.19103207346491</v>
+        <v>10.46470559131784</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.26101548673211</v>
+        <v>44.59869803370123</v>
       </c>
       <c r="D48" t="n">
-        <v>11.4492617397826</v>
+        <v>9.232368848360011</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.63406697241253</v>
+        <v>43.21803684571589</v>
       </c>
       <c r="D49" t="n">
-        <v>10.35301595797018</v>
+        <v>10.92738516295895</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.22494291884631</v>
+        <v>42.14456897218298</v>
       </c>
       <c r="D50" t="n">
-        <v>10.0769460339448</v>
+        <v>11.34162029149105</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.94060262111989</v>
+        <v>41.67649065371995</v>
       </c>
       <c r="D51" t="n">
-        <v>9.698415951394333</v>
+        <v>8.283552228729887</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.99649355672006</v>
+        <v>39.61179659998903</v>
       </c>
       <c r="D52" t="n">
-        <v>9.926112943145201</v>
+        <v>8.841845068753939</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.27377789149238</v>
+        <v>37.99272251869</v>
       </c>
       <c r="D53" t="n">
-        <v>9.382526589493866</v>
+        <v>10.928029115368</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.15783416741947</v>
+        <v>36.05390174492072</v>
       </c>
       <c r="D54" t="n">
-        <v>11.02617939931808</v>
+        <v>9.579567620500541</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.16348402013452</v>
+        <v>35.92857263951251</v>
       </c>
       <c r="D55" t="n">
-        <v>10.87838688292246</v>
+        <v>9.536799149952106</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.86431831742154</v>
+        <v>35.50170986055268</v>
       </c>
       <c r="D56" t="n">
-        <v>9.767398584428902</v>
+        <v>10.29502675802444</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>38.29387284584063</v>
+        <v>33.25937329931853</v>
       </c>
       <c r="D57" t="n">
-        <v>10.55973326485558</v>
+        <v>10.24457401410196</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.37397989399544</v>
+        <v>32.95819530031269</v>
       </c>
       <c r="D58" t="n">
-        <v>9.914498955314631</v>
+        <v>10.00704699162928</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.89263407335839</v>
+        <v>31.65344729622689</v>
       </c>
       <c r="D59" t="n">
-        <v>9.804170364867016</v>
+        <v>9.940474034900248</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.49857591186036</v>
+        <v>33.82623644222834</v>
       </c>
       <c r="D60" t="n">
-        <v>10.92949377800763</v>
+        <v>10.42092496353828</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.23510696217851</v>
+        <v>30.18515876952826</v>
       </c>
       <c r="D61" t="n">
-        <v>8.642320606235314</v>
+        <v>9.673096206904866</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.26880311785225</v>
+        <v>30.75143927941684</v>
       </c>
       <c r="D62" t="n">
-        <v>10.34243389932734</v>
+        <v>10.80021519531691</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.59122415625539</v>
+        <v>30.43744510752661</v>
       </c>
       <c r="D63" t="n">
-        <v>9.767953674031263</v>
+        <v>10.06244012770446</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.17788338448523</v>
+        <v>27.31606658691146</v>
       </c>
       <c r="D64" t="n">
-        <v>10.47443558670412</v>
+        <v>9.622668990628766</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.58883129802239</v>
+        <v>24.96735816943131</v>
       </c>
       <c r="D65" t="n">
-        <v>9.360690829942</v>
+        <v>10.94940287147339</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.40967858710067</v>
+        <v>26.43744553437946</v>
       </c>
       <c r="D66" t="n">
-        <v>10.40317094335834</v>
+        <v>9.094358130162973</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>22.83075514785101</v>
+        <v>22.91046017687316</v>
       </c>
       <c r="D67" t="n">
-        <v>9.764242364599498</v>
+        <v>10.58458603850328</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.39057842948029</v>
+        <v>26.92756680053654</v>
       </c>
       <c r="D68" t="n">
-        <v>13.10502071585625</v>
+        <v>9.466034425476435</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>21.94430522302166</v>
+        <v>23.19547730783251</v>
       </c>
       <c r="D69" t="n">
-        <v>9.636689996125309</v>
+        <v>10.05775984475949</v>
       </c>
     </row>
   </sheetData>
